--- a/labs/Risonatori/risonatori_sheet_table.xlsx
+++ b/labs/Risonatori/risonatori_sheet_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836C72C3-C29B-4AED-A160-8CEB341C7C82}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7850E5-EB1D-4F1E-BD13-07C6BC69AF4C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PARALLEL_RLC_Q" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Z0</t>
   </si>
@@ -49,20 +49,29 @@
     <t>uF</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>f0</t>
   </si>
   <si>
     <t>MHz</t>
+  </si>
+  <si>
+    <t>L[uH]</t>
+  </si>
+  <si>
+    <t>C[uF]</t>
+  </si>
+  <si>
+    <t>Qp</t>
+  </si>
+  <si>
+    <t>Qs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,8 +79,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,18 +97,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -99,14 +128,125 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -387,240 +527,457 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" customWidth="1"/>
+    <col min="17" max="17" width="7.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="6">
         <v>50</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="E2" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="F2">
-        <f>C3</f>
-        <v>0.01</v>
+        <f t="shared" ref="F2:J2" si="0">G2*2</f>
+        <v>2048</v>
       </c>
       <c r="G2">
-        <f>F2/2</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>1024</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:R2" si="0">G2/2</f>
-        <v>2.5000000000000001E-3</v>
+        <f t="shared" si="0"/>
+        <v>512</v>
       </c>
       <c r="I2">
         <f t="shared" si="0"/>
-        <v>1.25E-3</v>
+        <v>256</v>
       </c>
       <c r="J2">
         <f t="shared" si="0"/>
-        <v>6.2500000000000001E-4</v>
+        <v>128</v>
       </c>
       <c r="K2">
-        <f t="shared" si="0"/>
-        <v>3.1250000000000001E-4</v>
+        <f t="shared" ref="K2:N2" si="1">L2*2</f>
+        <v>64</v>
       </c>
       <c r="L2">
-        <f t="shared" si="0"/>
-        <v>1.5625E-4</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
       <c r="M2">
-        <f t="shared" si="0"/>
-        <v>7.8125000000000002E-5</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
       <c r="N2">
-        <f t="shared" si="0"/>
-        <v>3.9062500000000001E-5</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="O2">
-        <f t="shared" si="0"/>
-        <v>1.953125E-5</v>
-      </c>
-      <c r="P2">
-        <f t="shared" si="0"/>
-        <v>9.7656250000000002E-6</v>
+        <f>P2*2</f>
+        <v>4</v>
+      </c>
+      <c r="P2" s="2">
+        <f>C3</f>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <f t="shared" si="0"/>
-        <v>4.8828125000000001E-6</v>
+        <f>P2/2</f>
+        <v>1</v>
       </c>
       <c r="R2">
-        <f t="shared" si="0"/>
-        <v>2.4414062500000001E-6</v>
+        <f t="shared" ref="R2:AB2" si="2">Q2/2</f>
+        <v>0.5</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="2"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="2"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="2"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="2"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="2"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="2"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="2"/>
+        <v>4.8828125E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:J3" si="3">G3/2</f>
+        <v>3.2226562500000002E-8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="3"/>
+        <v>6.4453125000000005E-8</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="3"/>
+        <v>1.2890625000000001E-7</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="3"/>
+        <v>2.5781250000000002E-7</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="3"/>
+        <v>5.1562500000000004E-7</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:N3" si="4">L3/2</f>
+        <v>1.0312500000000001E-6</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="4"/>
+        <v>2.0625000000000002E-6</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="4"/>
+        <v>4.1250000000000003E-6</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="4"/>
+        <v>8.2500000000000006E-6</v>
+      </c>
+      <c r="O3">
+        <f>P3/2</f>
+        <v>1.6500000000000001E-5</v>
+      </c>
+      <c r="P3" s="3">
+        <f>C4</f>
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>P3*2</f>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" ref="R3:AB3" si="5">Q3*2</f>
+        <v>1.3200000000000001E-4</v>
+      </c>
+      <c r="S3" s="1">
+        <f t="shared" si="5"/>
+        <v>2.6400000000000002E-4</v>
+      </c>
+      <c r="T3" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="U3" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0560000000000001E-3</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1120000000000002E-3</v>
+      </c>
+      <c r="W3" s="1">
+        <f t="shared" si="5"/>
+        <v>4.2240000000000003E-3</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" si="5"/>
+        <v>8.4480000000000006E-3</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" si="5"/>
+        <v>1.6896000000000001E-2</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" si="5"/>
+        <v>3.3792000000000003E-2</v>
+      </c>
+      <c r="AA3" s="1">
+        <f t="shared" si="5"/>
+        <v>6.7584000000000005E-2</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="5"/>
+        <v>0.13516800000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
-        <f>C4</f>
-        <v>0.1</v>
-      </c>
-      <c r="G3" s="2">
-        <f>F3*2</f>
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:R3" si="1">G3*2</f>
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="2">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="J3" s="2">
-        <f t="shared" si="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="K3" s="2">
-        <f t="shared" si="1"/>
-        <v>3.2</v>
-      </c>
-      <c r="L3" s="2">
-        <f t="shared" si="1"/>
-        <v>6.4</v>
-      </c>
-      <c r="M3" s="2">
-        <f t="shared" si="1"/>
-        <v>12.8</v>
-      </c>
-      <c r="N3" s="2">
-        <f t="shared" si="1"/>
-        <v>25.6</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" si="1"/>
-        <v>51.2</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" si="1"/>
-        <v>102.4</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" si="1"/>
-        <v>204.8</v>
-      </c>
-      <c r="R3" s="2">
-        <f t="shared" si="1"/>
-        <v>409.6</v>
+      <c r="B4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:J4" si="6">$C$2*$C$5*2*PI()*F$3</f>
+        <v>1.9834078136318265E-4</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="6"/>
+        <v>3.9668156272636531E-4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="6"/>
+        <v>7.9336312545273061E-4</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="6"/>
+        <v>1.5867262509054612E-3</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="6"/>
+        <v>3.1734525018109225E-3</v>
+      </c>
+      <c r="K4">
+        <f>$C$2*$C$5*2*PI()*K$3</f>
+        <v>6.3469050036218449E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:N4" si="7">$C$2*$C$5*2*PI()*L$3</f>
+        <v>1.269381000724369E-2</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="7"/>
+        <v>2.538762001448738E-2</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>5.0775240028974759E-2</v>
+      </c>
+      <c r="O4">
+        <f>$C$2*$C$5*2*PI()*O$3</f>
+        <v>0.10155048005794952</v>
+      </c>
+      <c r="P4" s="2">
+        <f>$C$2*$C$5*2*PI()*P$3</f>
+        <v>0.20310096011589904</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:AB4" si="8">$C$2*$C$5*2*PI()*Q$3</f>
+        <v>0.40620192023179807</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="8"/>
+        <v>0.81240384046359615</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="8"/>
+        <v>1.6248076809271923</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="8"/>
+        <v>3.2496153618543846</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="8"/>
+        <v>6.4992307237087692</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="8"/>
+        <v>12.998461447417538</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="8"/>
+        <v>25.996922894835077</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="8"/>
+        <v>51.993845789670154</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="8"/>
+        <v>103.98769157934031</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="8"/>
+        <v>207.97538315868061</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="8"/>
+        <v>415.95076631736123</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="8"/>
+        <v>831.90153263472246</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F4">
-        <f>$C$2*$C$5*2*PI()*F$3</f>
-        <v>158.11388300841898</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ref="G4:R4" si="2">$C$2*$C$5*2*PI()*G$3</f>
-        <v>316.22776601683796</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>632.45553203367592</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
-        <v>1264.9110640673518</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="2"/>
-        <v>2529.8221281347037</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="2"/>
-        <v>5059.6442562694074</v>
-      </c>
-      <c r="L4">
-        <f t="shared" si="2"/>
-        <v>10119.288512538815</v>
-      </c>
-      <c r="M4">
-        <f t="shared" si="2"/>
-        <v>20238.57702507763</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="2"/>
-        <v>40477.154050155259</v>
-      </c>
-      <c r="O4">
-        <f t="shared" si="2"/>
-        <v>80954.308100310518</v>
-      </c>
-      <c r="P4">
-        <f t="shared" si="2"/>
-        <v>161908.61620062104</v>
-      </c>
-      <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>323817.23240124207</v>
-      </c>
-      <c r="R4">
-        <f t="shared" si="2"/>
-        <v>647634.46480248414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <f>1/SQRT(C3*C4)/(2*PI())</f>
-        <v>5.0329212104487038</v>
+        <v>19.59061924191225</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:J5" si="9">$C$5*2*PI()*F$2/$C$2</f>
+        <v>5041.8274705134691</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="9"/>
+        <v>2520.9137352567345</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="9"/>
+        <v>1260.4568676283673</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="9"/>
+        <v>630.22843381418363</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="9"/>
+        <v>315.11421690709182</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:AB5" si="10">$C$5*2*PI()*K$2/$C$2</f>
+        <v>157.55710845354591</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="10"/>
+        <v>78.778554226772954</v>
+      </c>
+      <c r="M5">
+        <f>$C$5*2*PI()*M$2/$C$2</f>
+        <v>39.389277113386477</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="10"/>
+        <v>19.694638556693238</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="10"/>
+        <v>9.8473192783466192</v>
+      </c>
+      <c r="P5" s="2">
+        <f>$C$5*2*PI()*P$2/$C$2</f>
+        <v>4.9236596391733096</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="10"/>
+        <v>2.4618298195866548</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="10"/>
+        <v>1.2309149097933274</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="10"/>
+        <v>0.6154574548966637</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="10"/>
+        <v>0.30772872744833185</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="10"/>
+        <v>0.15386436372416593</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="10"/>
+        <v>7.6932181862082963E-2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="10"/>
+        <v>3.8466090931041481E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="10"/>
+        <v>1.9233045465520741E-2</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="10"/>
+        <v>9.6165227327603704E-3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="10"/>
+        <v>4.8082613663801852E-3</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="10"/>
+        <v>2.4041306831900926E-3</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="10"/>
+        <v>1.2020653415950463E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>